--- a/ControllerTables.xlsx
+++ b/ControllerTables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t xml:space="preserve">State transition</t>
   </si>
@@ -49,21 +49,15 @@
     <t xml:space="preserve">A+</t>
   </si>
   <si>
-    <t xml:space="preserve">Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X</t>
-  </si>
-  <si>
     <t xml:space="preserve">T8</t>
   </si>
   <si>
     <t xml:space="preserve">T4</t>
   </si>
   <si>
+    <t xml:space="preserve">Assuming done is 1 rather than x</t>
+  </si>
+  <si>
     <t xml:space="preserve">C+ = C’BAD + CB’A’ + CBD + CA’D</t>
   </si>
   <si>
@@ -73,13 +67,13 @@
     <t xml:space="preserve">A+ = A’D</t>
   </si>
   <si>
-    <t xml:space="preserve">Z = CB’A’ + CD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y = BD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X = AD</t>
+    <t xml:space="preserve">Z = CB’A’ + CD ???</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y = BD                ???</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X = AD               ???</t>
   </si>
   <si>
     <t xml:space="preserve">T8 = C’B’A’D’</t>
@@ -95,7 +89,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -119,20 +113,6 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -141,7 +121,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,44 +130,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -206,7 +159,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -230,13 +183,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
@@ -245,29 +192,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="22" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Neutral" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Input" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Output" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -282,11 +227,11 @@
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF9C6500"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF7F7F7F"/>
+      <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
@@ -306,7 +251,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFEB9C"/>
+      <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -325,7 +270,7 @@
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF3F3F76"/>
+      <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF3F3F3F"/>
     </indexedColors>
   </colors>
@@ -339,16 +284,16 @@
   </sheetPr>
   <dimension ref="A2:T22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R12" activeCellId="0" sqref="R12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T9" activeCellId="0" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="2" style="0" width="8.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="2" style="0" width="8.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="48.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="21" style="0" width="8.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="21" style="0" width="8.48"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -382,19 +327,22 @@
         <v>8</v>
       </c>
       <c r="J4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="T4" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -725,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -769,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -813,33 +761,33 @@
         <v>0</v>
       </c>
       <c r="T14" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="T16" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="T17" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="T18" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="T20" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="T21" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ControllerTables.xlsx
+++ b/ControllerTables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t xml:space="preserve">State transition</t>
   </si>
@@ -40,6 +40,9 @@
     <t xml:space="preserve">done</t>
   </si>
   <si>
+    <t xml:space="preserve">sensor</t>
+  </si>
+  <si>
     <t xml:space="preserve">C+</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
   </si>
   <si>
     <t xml:space="preserve">Assuming done is 1 rather than x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
   </si>
   <si>
     <t xml:space="preserve">C+ = C’BAD + CB’A’ + CBD + CA’D</t>
@@ -121,7 +127,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,6 +138,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -187,7 +199,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -196,7 +208,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -221,7 +237,7 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFF200"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -282,18 +298,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:T22"/>
+  <dimension ref="A2:T1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T9" activeCellId="0" sqref="T9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="2" style="0" width="8.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="2" style="0" width="8.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="48.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="21" style="0" width="8.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="21" style="0" width="8.49"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -301,7 +317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
         <v>1</v>
       </c>
@@ -327,25 +343,28 @@
         <v>8</v>
       </c>
       <c r="J4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="L4" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="M4" s="0" t="s">
         <v>4</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>9</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="O4" s="0" t="s">
+        <v>11</v>
+      </c>
       <c r="T4" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="n">
         <v>1</v>
       </c>
@@ -361,8 +380,8 @@
       <c r="F5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G5" s="0" t="n">
-        <v>0</v>
+      <c r="G5" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>0</v>
@@ -370,23 +389,26 @@
       <c r="I5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="n">
         <v>1</v>
       </c>
@@ -402,196 +424,211 @@
       <c r="F6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="3" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="1" t="n">
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1" t="n">
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="C10" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="n">
         <v>5</v>
       </c>
@@ -605,36 +642,39 @@
         <v>0</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -643,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="G12" s="0" t="n">
-        <v>1</v>
+      <c r="G12" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>1</v>
@@ -657,43 +697,43 @@
       <c r="I12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" s="0" t="s">
-        <v>12</v>
+      <c r="J12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>1</v>
@@ -701,97 +741,151 @@
       <c r="I13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="3" t="n">
+      <c r="J13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T13" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T16" s="0" t="s">
-        <v>15</v>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="T17" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="T18" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T20" s="0" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T19" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="T21" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T22" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/ControllerTables.xlsx
+++ b/ControllerTables.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t xml:space="preserve">State transition</t>
   </si>
@@ -52,40 +52,46 @@
     <t xml:space="preserve">A+</t>
   </si>
   <si>
+    <t xml:space="preserve">Z2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z0</t>
+  </si>
+  <si>
     <t xml:space="preserve">T8</t>
   </si>
   <si>
     <t xml:space="preserve">T4</t>
   </si>
   <si>
-    <t xml:space="preserve">Assuming done is 1 rather than x</t>
-  </si>
-  <si>
     <t xml:space="preserve">x</t>
   </si>
   <si>
-    <t xml:space="preserve">C+ = C’BAD + CB’A’ + CBD + CA’D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B+ = B’AD + BA’D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A+ = A’D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z = CB’A’ + CD ???</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y = BD                ???</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X = AD               ???</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T8 = C’B’A’D’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T4 = CB’A’D’</t>
+    <t xml:space="preserve">C+ = CB’ + CA’ + C’BA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B+ = B’A + BA’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A+ = BA’ + CA’done +A’donesensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z2 = C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z1 = B               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z0 = A               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T8 = CBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T4 = C’BA</t>
   </si>
 </sst>
 </file>
@@ -301,7 +307,7 @@
   <dimension ref="A2:T1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4:O15"/>
+      <selection pane="topLeft" activeCell="R24" activeCellId="0" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -346,22 +352,19 @@
         <v>9</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="T4" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -381,7 +384,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>0</v>
@@ -487,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="4" t="n">
         <v>0</v>
@@ -510,10 +513,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>0</v>
@@ -554,10 +557,10 @@
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>0</v>
@@ -598,10 +601,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>1</v>
@@ -645,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>1</v>
@@ -689,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>1</v>
@@ -730,10 +733,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>1</v>
@@ -760,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -777,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>1</v>
@@ -807,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -824,10 +827,10 @@
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0</v>
@@ -854,33 +857,33 @@
         <v>0</v>
       </c>
       <c r="T15" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="T17" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="T18" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="T19" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="T21" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="T22" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/ControllerTables.xlsx
+++ b/ControllerTables.xlsx
@@ -580,7 +580,7 @@
   <dimension ref="A2:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
